--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/ResumenActividad.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/ResumenActividad.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$9:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$9:$D$9</definedName>
     <definedName name="Desde">Informe!$B$6</definedName>
     <definedName name="Distrito">Informe!#REF!</definedName>
     <definedName name="Empresa">Informe!#REF!</definedName>
     <definedName name="Hasta">Informe!$B$7</definedName>
     <definedName name="PARENTI01">Informe!#REF!</definedName>
     <definedName name="PARENTI03">Informe!$A$9</definedName>
+    <definedName name="SIN_INFORMACION">Informe!$D$9</definedName>
     <definedName name="TIEMPO_APAGADO">Informe!$C$9</definedName>
     <definedName name="TIEMPO_ENCENDIDO">Informe!$B$9</definedName>
     <definedName name="Titulo">Informe!$C$1</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Funciones</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t>Tiempo Apagado</t>
+  </si>
+  <si>
+    <t>Sin Información</t>
   </si>
 </sst>
 </file>
@@ -992,7 +996,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,6 +1004,7 @@
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
@@ -1051,14 +1056,18 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:C9"/>
+  <autoFilter ref="A9:D9"/>
   <pageMargins left="0.11811023622047244" right="0.11811023622047244" top="0.11811023622047244" bottom="0.11811023622047244" header="0" footer="0"/>
   <pageSetup scale="18" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
